--- a/tool/umem_SPRD.xlsx
+++ b/tool/umem_SPRD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="229">
   <si>
     <t>静态RAM</t>
   </si>
@@ -698,6 +698,131 @@
   </si>
   <si>
     <t>mmi_res_240X320.bin</t>
+  </si>
+  <si>
+    <t>XFILE_PART_NUM</t>
+  </si>
+  <si>
+    <t>AUTOSMS_PART_NUM</t>
+  </si>
+  <si>
+    <t>DM_PART_NUM</t>
+  </si>
+  <si>
+    <t>PROTECT_PART_NUM</t>
+  </si>
+  <si>
+    <t>WIFI_PART_NUM</t>
+  </si>
+  <si>
+    <t>ROMDISK_PART_NUM</t>
+  </si>
+  <si>
+    <t>DELTA_NV_PART_NUM</t>
+  </si>
+  <si>
+    <t>FOTA_PART_NUM</t>
+  </si>
+  <si>
+    <t>分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_PART_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE1</t>
+  </si>
+  <si>
+    <t>BASE2</t>
+  </si>
+  <si>
+    <t>BASE3</t>
+  </si>
+  <si>
+    <t>BASE4</t>
+  </si>
+  <si>
+    <t>BASE5</t>
+  </si>
+  <si>
+    <t>BASE6</t>
+  </si>
+  <si>
+    <t>BASE7</t>
+  </si>
+  <si>
+    <t>BASE8</t>
+  </si>
+  <si>
+    <t>BASE9</t>
+  </si>
+  <si>
+    <t>BASE10</t>
+  </si>
+  <si>
+    <t>BASE11</t>
+  </si>
+  <si>
+    <t>BASE12</t>
+  </si>
+  <si>
+    <t>BASE13</t>
+  </si>
+  <si>
+    <t>BASE14</t>
+  </si>
+  <si>
+    <t>BASE15</t>
+  </si>
+  <si>
+    <t>BOOT0_SIZE</t>
+  </si>
+  <si>
+    <t>BOOT1_SIZE</t>
+  </si>
+  <si>
+    <t>DL_NV_SIZE</t>
+  </si>
+  <si>
+    <t>PART_512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIDDEN_FS_SIZE</t>
+  </si>
+  <si>
+    <t>1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512_debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载要格式化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1342,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2751,7 +2876,7 @@
   <dimension ref="B3:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2826,76 +2951,451 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>112</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2*128-F2</f>
+        <v>2070</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="4">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3">
+        <v>128</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3*128-F3</f>
+        <v>7132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4">
+        <v>192</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4*128-F4</f>
+        <v>22175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5*128-F5</f>
+        <v>8191</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C8*128-F8</f>
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="6">
+        <v>12363</v>
+      </c>
+      <c r="G8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9" s="6">
+        <f>C9*128-F9</f>
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="6">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10*128-F10</f>
+        <v>6175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11*128-F11</f>
+        <v>4095</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="0">C14*128-F14</f>
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>186</v>
       </c>
-      <c r="B3">
+      <c r="C15">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>187</v>
       </c>
-      <c r="B4">
+      <c r="C16">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="4">
-        <v>12266</v>
-      </c>
-      <c r="C7" s="4">
-        <f>B2*128-B7</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9252</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:C9" si="0">B3*128-B8</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="D16" s="4">
+        <f>C16*128-F16</f>
+        <v>6943</v>
+      </c>
+      <c r="E16" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="4">
+      <c r="F16" s="4">
         <v>2401</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>6943</v>
-      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17*128-F17</f>
+        <v>4095</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <f>HEX2DEC(C9)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" t="str">
+        <f>DEC2HEX(156)</f>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
